--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ren1-Atp6ap2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ren1-Atp6ap2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,16 +82,16 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Ren1</t>
+  </si>
+  <si>
+    <t>Atp6ap2</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Ren1</t>
-  </si>
-  <si>
-    <t>Atp6ap2</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
-      </c>
-      <c r="C2" t="s">
-        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +540,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.597538</v>
+        <v>0.9107379999999999</v>
       </c>
       <c r="H2">
-        <v>1.792614</v>
+        <v>2.732214</v>
       </c>
       <c r="I2">
-        <v>0.5577603883072232</v>
+        <v>0.6666790296822176</v>
       </c>
       <c r="J2">
-        <v>0.5577603883072232</v>
+        <v>0.6666790296822176</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.964291666666666</v>
+        <v>9.299156666666667</v>
       </c>
       <c r="N2">
-        <v>26.892875</v>
+        <v>27.89747</v>
       </c>
       <c r="O2">
-        <v>0.05217371250905657</v>
+        <v>0.0669608156430657</v>
       </c>
       <c r="P2">
-        <v>0.05217371250905657</v>
+        <v>0.06696081564306569</v>
       </c>
       <c r="Q2">
-        <v>5.356504913916666</v>
+        <v>8.469095344286666</v>
       </c>
       <c r="R2">
-        <v>48.20854422525</v>
+        <v>76.22185809858</v>
       </c>
       <c r="S2">
-        <v>0.02910043014848082</v>
+        <v>0.0446413715996489</v>
       </c>
       <c r="T2">
-        <v>0.02910043014848082</v>
+        <v>0.04464137159964889</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,16 +602,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.597538</v>
+        <v>0.9107379999999999</v>
       </c>
       <c r="H3">
-        <v>1.792614</v>
+        <v>2.732214</v>
       </c>
       <c r="I3">
-        <v>0.5577603883072232</v>
+        <v>0.6666790296822176</v>
       </c>
       <c r="J3">
-        <v>0.5577603883072232</v>
+        <v>0.6666790296822176</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>41.387949</v>
       </c>
       <c r="O3">
-        <v>0.08029498342834285</v>
+        <v>0.09934129592517191</v>
       </c>
       <c r="P3">
-        <v>0.08029498342834283</v>
+        <v>0.09934129592517189</v>
       </c>
       <c r="Q3">
-        <v>8.243624089854</v>
+        <v>12.564525965454</v>
       </c>
       <c r="R3">
-        <v>74.192616808686</v>
+        <v>113.080733689086</v>
       </c>
       <c r="S3">
-        <v>0.04478536113611456</v>
+        <v>0.06622875877476764</v>
       </c>
       <c r="T3">
-        <v>0.04478536113611455</v>
+        <v>0.06622875877476764</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -664,16 +664,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.597538</v>
+        <v>0.9107379999999999</v>
       </c>
       <c r="H4">
-        <v>1.792614</v>
+        <v>2.732214</v>
       </c>
       <c r="I4">
-        <v>0.5577603883072232</v>
+        <v>0.6666790296822176</v>
       </c>
       <c r="J4">
-        <v>0.5577603883072232</v>
+        <v>0.6666790296822176</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>72.27309166666667</v>
+        <v>58.02391933333333</v>
       </c>
       <c r="N4">
-        <v>216.819275</v>
+        <v>174.071758</v>
       </c>
       <c r="O4">
-        <v>0.4206417692519702</v>
+        <v>0.4178151960053133</v>
       </c>
       <c r="P4">
-        <v>0.4206417692519702</v>
+        <v>0.4178151960053132</v>
       </c>
       <c r="Q4">
-        <v>43.18591864831667</v>
+        <v>52.84458824580133</v>
       </c>
       <c r="R4">
-        <v>388.67326783485</v>
+        <v>475.6012942122119</v>
       </c>
       <c r="S4">
-        <v>0.2346173165562163</v>
+        <v>0.2785486294593078</v>
       </c>
       <c r="T4">
-        <v>0.2346173165562163</v>
+        <v>0.2785486294593078</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +711,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -726,16 +726,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.597538</v>
+        <v>0.9107379999999999</v>
       </c>
       <c r="H5">
-        <v>1.792614</v>
+        <v>2.732214</v>
       </c>
       <c r="I5">
-        <v>0.5577603883072232</v>
+        <v>0.6666790296822176</v>
       </c>
       <c r="J5">
-        <v>0.5577603883072232</v>
+        <v>0.6666790296822176</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.483964666666668</v>
+        <v>5.486347666666667</v>
       </c>
       <c r="N5">
-        <v>19.451894</v>
+        <v>16.459043</v>
       </c>
       <c r="O5">
-        <v>0.03773778464789067</v>
+        <v>0.03950576679477713</v>
       </c>
       <c r="P5">
-        <v>0.03773778464789066</v>
+        <v>0.03950576679477713</v>
       </c>
       <c r="Q5">
-        <v>3.874415278990667</v>
+        <v>4.996625301244666</v>
       </c>
       <c r="R5">
-        <v>34.869737510916</v>
+        <v>44.969627711202</v>
       </c>
       <c r="S5">
-        <v>0.02104864141906186</v>
+        <v>0.02633766627359399</v>
       </c>
       <c r="T5">
-        <v>0.02104864141906186</v>
+        <v>0.02633766627359399</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,10 +773,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
@@ -788,16 +788,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.597538</v>
+        <v>0.9107379999999999</v>
       </c>
       <c r="H6">
-        <v>1.792614</v>
+        <v>2.732214</v>
       </c>
       <c r="I6">
-        <v>0.5577603883072232</v>
+        <v>0.6666790296822176</v>
       </c>
       <c r="J6">
-        <v>0.5577603883072232</v>
+        <v>0.6666790296822176</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>70.29891966666666</v>
+        <v>52.269196</v>
       </c>
       <c r="N6">
-        <v>210.896759</v>
+        <v>156.807588</v>
       </c>
       <c r="O6">
-        <v>0.4091517501627397</v>
+        <v>0.3763769256316721</v>
       </c>
       <c r="P6">
-        <v>0.4091517501627397</v>
+        <v>0.376376925631672</v>
       </c>
       <c r="Q6">
-        <v>42.00627585978066</v>
+        <v>47.603543026648</v>
       </c>
       <c r="R6">
-        <v>378.056482738026</v>
+        <v>428.431887239832</v>
       </c>
       <c r="S6">
-        <v>0.2282086390473497</v>
+        <v>0.2509226035748993</v>
       </c>
       <c r="T6">
-        <v>0.2282086390473497</v>
+        <v>0.2509226035748993</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>1.366031</v>
       </c>
       <c r="I7">
-        <v>0.4250318144339519</v>
+        <v>0.3333209703177824</v>
       </c>
       <c r="J7">
-        <v>0.425031814433952</v>
+        <v>0.3333209703177824</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>8.964291666666666</v>
+        <v>9.299156666666667</v>
       </c>
       <c r="N7">
-        <v>26.892875</v>
+        <v>27.89747</v>
       </c>
       <c r="O7">
-        <v>0.05217371250905657</v>
+        <v>0.0669608156430657</v>
       </c>
       <c r="P7">
-        <v>0.05217371250905657</v>
+        <v>0.06696081564306569</v>
       </c>
       <c r="Q7">
-        <v>4.081833436569444</v>
+        <v>4.234312093507778</v>
       </c>
       <c r="R7">
-        <v>36.736500929125</v>
+        <v>38.10880884157</v>
       </c>
       <c r="S7">
-        <v>0.02217548769347969</v>
+        <v>0.0223194440434168</v>
       </c>
       <c r="T7">
-        <v>0.02217548769347969</v>
+        <v>0.0223194440434168</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
         <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>1.366031</v>
       </c>
       <c r="I8">
-        <v>0.4250318144339519</v>
+        <v>0.3333209703177824</v>
       </c>
       <c r="J8">
-        <v>0.425031814433952</v>
+        <v>0.3333209703177824</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>41.387949</v>
       </c>
       <c r="O8">
-        <v>0.08029498342834285</v>
+        <v>0.09934129592517191</v>
       </c>
       <c r="P8">
-        <v>0.08029498342834283</v>
+        <v>0.09934129592517189</v>
       </c>
       <c r="Q8">
         <v>6.281913484491</v>
@@ -948,10 +948,10 @@
         <v>56.537221360419</v>
       </c>
       <c r="S8">
-        <v>0.03412792249649266</v>
+        <v>0.03311253715040426</v>
       </c>
       <c r="T8">
-        <v>0.03412792249649266</v>
+        <v>0.03311253715040426</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -980,10 +980,10 @@
         <v>1.366031</v>
       </c>
       <c r="I9">
-        <v>0.4250318144339519</v>
+        <v>0.3333209703177824</v>
       </c>
       <c r="J9">
-        <v>0.425031814433952</v>
+        <v>0.3333209703177824</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>72.27309166666667</v>
+        <v>58.02391933333333</v>
       </c>
       <c r="N9">
-        <v>216.819275</v>
+        <v>174.071758</v>
       </c>
       <c r="O9">
-        <v>0.4206417692519702</v>
+        <v>0.4178151960053133</v>
       </c>
       <c r="P9">
-        <v>0.4206417692519702</v>
+        <v>0.4178151960053132</v>
       </c>
       <c r="Q9">
-        <v>32.90909456083611</v>
+        <v>26.42082418361089</v>
       </c>
       <c r="R9">
-        <v>296.181851047525</v>
+        <v>237.787417652498</v>
       </c>
       <c r="S9">
-        <v>0.1787861344118726</v>
+        <v>0.1392665665460054</v>
       </c>
       <c r="T9">
-        <v>0.1787861344118726</v>
+        <v>0.1392665665460054</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,13 +1021,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1042,10 +1042,10 @@
         <v>1.366031</v>
       </c>
       <c r="I10">
-        <v>0.4250318144339519</v>
+        <v>0.3333209703177824</v>
       </c>
       <c r="J10">
-        <v>0.425031814433952</v>
+        <v>0.3333209703177824</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.483964666666668</v>
+        <v>5.486347666666667</v>
       </c>
       <c r="N10">
-        <v>19.451894</v>
+        <v>16.459043</v>
       </c>
       <c r="O10">
-        <v>0.03773778464789067</v>
+        <v>0.03950576679477713</v>
       </c>
       <c r="P10">
-        <v>0.03773778464789066</v>
+        <v>0.03950576679477713</v>
       </c>
       <c r="Q10">
-        <v>2.952432245857112</v>
+        <v>2.498173663148111</v>
       </c>
       <c r="R10">
-        <v>26.571890212714</v>
+        <v>22.483562968333</v>
       </c>
       <c r="S10">
-        <v>0.01603975908161071</v>
+        <v>0.01316810052118314</v>
       </c>
       <c r="T10">
-        <v>0.0160397590816107</v>
+        <v>0.01316810052118314</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,10 +1083,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
         <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
       </c>
       <c r="D11" t="s">
         <v>26</v>
@@ -1104,10 +1104,10 @@
         <v>1.366031</v>
       </c>
       <c r="I11">
-        <v>0.4250318144339519</v>
+        <v>0.3333209703177824</v>
       </c>
       <c r="J11">
-        <v>0.425031814433952</v>
+        <v>0.3333209703177824</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,338 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>70.29891966666666</v>
+        <v>52.269196</v>
       </c>
       <c r="N11">
-        <v>210.896759</v>
+        <v>156.807588</v>
       </c>
       <c r="O11">
-        <v>0.4091517501627397</v>
+        <v>0.3763769256316721</v>
       </c>
       <c r="P11">
-        <v>0.4091517501627397</v>
+        <v>0.376376925631672</v>
       </c>
       <c r="Q11">
-        <v>32.01016784372544</v>
+        <v>23.80044736035867</v>
       </c>
       <c r="R11">
-        <v>288.091510593529</v>
+        <v>214.204026243228</v>
       </c>
       <c r="S11">
-        <v>0.1739025107504963</v>
+        <v>0.1254543220567727</v>
       </c>
       <c r="T11">
-        <v>0.1739025107504963</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G12">
-        <v>0.018435</v>
-      </c>
-      <c r="H12">
-        <v>0.05530499999999999</v>
-      </c>
-      <c r="I12">
-        <v>0.01720779725882481</v>
-      </c>
-      <c r="J12">
-        <v>0.01720779725882481</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>8.964291666666666</v>
-      </c>
-      <c r="N12">
-        <v>26.892875</v>
-      </c>
-      <c r="O12">
-        <v>0.05217371250905657</v>
-      </c>
-      <c r="P12">
-        <v>0.05217371250905657</v>
-      </c>
-      <c r="Q12">
-        <v>0.165256716875</v>
-      </c>
-      <c r="R12">
-        <v>1.487310451875</v>
-      </c>
-      <c r="S12">
-        <v>0.0008977946670960571</v>
-      </c>
-      <c r="T12">
-        <v>0.0008977946670960574</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G13">
-        <v>0.018435</v>
-      </c>
-      <c r="H13">
-        <v>0.05530499999999999</v>
-      </c>
-      <c r="I13">
-        <v>0.01720779725882481</v>
-      </c>
-      <c r="J13">
-        <v>0.01720779725882481</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>13.795983</v>
-      </c>
-      <c r="N13">
-        <v>41.387949</v>
-      </c>
-      <c r="O13">
-        <v>0.08029498342834285</v>
-      </c>
-      <c r="P13">
-        <v>0.08029498342834283</v>
-      </c>
-      <c r="Q13">
-        <v>0.2543289466049999</v>
-      </c>
-      <c r="R13">
-        <v>2.288960519445</v>
-      </c>
-      <c r="S13">
-        <v>0.001381699795735621</v>
-      </c>
-      <c r="T13">
-        <v>0.001381699795735621</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G14">
-        <v>0.018435</v>
-      </c>
-      <c r="H14">
-        <v>0.05530499999999999</v>
-      </c>
-      <c r="I14">
-        <v>0.01720779725882481</v>
-      </c>
-      <c r="J14">
-        <v>0.01720779725882481</v>
-      </c>
-      <c r="K14">
-        <v>3</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>72.27309166666667</v>
-      </c>
-      <c r="N14">
-        <v>216.819275</v>
-      </c>
-      <c r="O14">
-        <v>0.4206417692519702</v>
-      </c>
-      <c r="P14">
-        <v>0.4206417692519702</v>
-      </c>
-      <c r="Q14">
-        <v>1.332354444875</v>
-      </c>
-      <c r="R14">
-        <v>11.991190003875</v>
-      </c>
-      <c r="S14">
-        <v>0.00723831828388127</v>
-      </c>
-      <c r="T14">
-        <v>0.00723831828388127</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G15">
-        <v>0.018435</v>
-      </c>
-      <c r="H15">
-        <v>0.05530499999999999</v>
-      </c>
-      <c r="I15">
-        <v>0.01720779725882481</v>
-      </c>
-      <c r="J15">
-        <v>0.01720779725882481</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>6.483964666666668</v>
-      </c>
-      <c r="N15">
-        <v>19.451894</v>
-      </c>
-      <c r="O15">
-        <v>0.03773778464789067</v>
-      </c>
-      <c r="P15">
-        <v>0.03773778464789066</v>
-      </c>
-      <c r="Q15">
-        <v>0.11953188863</v>
-      </c>
-      <c r="R15">
-        <v>1.07578699767</v>
-      </c>
-      <c r="S15">
-        <v>0.0006493841472180939</v>
-      </c>
-      <c r="T15">
-        <v>0.0006493841472180939</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G16">
-        <v>0.018435</v>
-      </c>
-      <c r="H16">
-        <v>0.05530499999999999</v>
-      </c>
-      <c r="I16">
-        <v>0.01720779725882481</v>
-      </c>
-      <c r="J16">
-        <v>0.01720779725882481</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>70.29891966666666</v>
-      </c>
-      <c r="N16">
-        <v>210.896759</v>
-      </c>
-      <c r="O16">
-        <v>0.4091517501627397</v>
-      </c>
-      <c r="P16">
-        <v>0.4091517501627397</v>
-      </c>
-      <c r="Q16">
-        <v>1.295960584055</v>
-      </c>
-      <c r="R16">
-        <v>11.663645256495</v>
-      </c>
-      <c r="S16">
-        <v>0.007040600364893765</v>
-      </c>
-      <c r="T16">
-        <v>0.007040600364893766</v>
+        <v>0.1254543220567727</v>
       </c>
     </row>
   </sheetData>
